--- a/webScrapping/espn_scrapper/IPL/Kolkata Knight Riders/Dinesh Karthik †.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Kolkata Knight Riders/Dinesh Karthik †.xlsx
@@ -474,37 +474,37 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 29 2020</v>
+        <v xml:space="preserve"> Oct 18 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C3" t="str">
-        <v>Super Kings won by 6 wickets</v>
+        <v>Match tied (KKR won the one-over eliminator)</v>
       </c>
       <c r="D3" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="E3" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F3" t="str">
         <v>Dinesh Karthik †</v>
       </c>
       <c r="G3" t="str">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H3" t="str">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I3" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="str">
-        <v>210.00</v>
+        <v>207.14</v>
       </c>
     </row>
     <row r="4">
@@ -544,72 +544,72 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Oct 21 2020</v>
+        <v xml:space="preserve"> Oct 29 2020</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C5" t="str">
-        <v>RCB won by 8 wickets (with 39 balls remaining)</v>
+        <v>Super Kings won by 6 wickets</v>
       </c>
       <c r="D5" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="E5" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F5" t="str">
         <v>Dinesh Karthik †</v>
       </c>
       <c r="G5" t="str">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H5" t="str">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I5" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="str">
         <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v>28.57</v>
+        <v>210.00</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve"> Oct 18 2020</v>
+        <v xml:space="preserve"> Oct 21 2020</v>
       </c>
       <c r="B6" t="str">
         <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C6" t="str">
-        <v>Match tied (KKR won the one-over eliminator)</v>
+        <v>RCB won by 8 wickets (with 39 balls remaining)</v>
       </c>
       <c r="D6" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="E6" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="F6" t="str">
         <v>Dinesh Karthik †</v>
       </c>
       <c r="G6" t="str">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H6" t="str">
         <v>14</v>
       </c>
       <c r="I6" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="str">
-        <v>207.14</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="7">
